--- a/Project/T2T4suomi.xlsx
+++ b/Project/T2T4suomi.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\risto\OneDrive\Documents\GitHub\dws\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31960C83-F583-45FA-815C-364AB521809A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F50B94-F5DC-4527-AC4C-EF52ABE1478A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="36" yWindow="756" windowWidth="23040" windowHeight="8964"/>
+    <workbookView xWindow="348" yWindow="348" windowWidth="20316" windowHeight="11700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T2" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'T4'!$A$1:$T$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,12 +38,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Mikko Ville Valjento</author>
   </authors>
   <commentList>
-    <comment ref="B10" authorId="0" shapeId="0">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -66,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0" shapeId="0">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -92,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -116,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -140,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -163,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0" shapeId="0">
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -186,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B19" authorId="0" shapeId="0">
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -211,7 +212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="0" shapeId="0">
+    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -236,7 +237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="0" shapeId="0">
+    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -260,7 +261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B23" authorId="0" shapeId="0">
+    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -284,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B24" authorId="0" shapeId="0">
+    <comment ref="B24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -308,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B26" authorId="0" shapeId="0">
+    <comment ref="B26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -333,7 +334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B27" authorId="0" shapeId="0">
+    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -362,13 +363,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>valjento</author>
     <author>Mikko Ville Valjento</author>
   </authors>
   <commentList>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -381,7 +382,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0" shapeId="0">
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -394,7 +395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D15" authorId="0" shapeId="0">
+    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -418,7 +419,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D16" authorId="1" shapeId="0">
+    <comment ref="D16" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -431,7 +432,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D18" authorId="0" shapeId="0">
+    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -444,7 +445,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D21" authorId="0" shapeId="0">
+    <comment ref="D21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -467,7 +468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D22" authorId="0" shapeId="0">
+    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -491,7 +492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D23" authorId="0" shapeId="0">
+    <comment ref="D23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -515,7 +516,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D24" authorId="0" shapeId="0">
+    <comment ref="D24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -539,7 +540,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D26" authorId="1" shapeId="0">
+    <comment ref="D26" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -552,7 +553,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D27" authorId="1" shapeId="0">
+    <comment ref="D27" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -565,7 +566,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D29" authorId="0" shapeId="0">
+    <comment ref="D29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -589,7 +590,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D32" authorId="0" shapeId="0">
+    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -613,7 +614,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D36" authorId="0" shapeId="0">
+    <comment ref="D36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -637,7 +638,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D37" authorId="0" shapeId="0">
+    <comment ref="D37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -661,7 +662,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D38" authorId="0" shapeId="0">
+    <comment ref="D38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
       <text>
         <r>
           <rPr>
@@ -685,7 +686,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D39" authorId="0" shapeId="0">
+    <comment ref="D39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
       <text>
         <r>
           <rPr>
@@ -708,7 +709,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D40" authorId="0" shapeId="0">
+    <comment ref="D40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
       <text>
         <r>
           <rPr>
@@ -732,7 +733,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D41" authorId="0" shapeId="0">
+    <comment ref="D41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
       <text>
         <r>
           <rPr>
@@ -761,7 +762,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="77">
   <si>
     <t>YRITYSTUTKIMUSNEUVOTTELUKUNTA</t>
   </si>
@@ -975,16 +976,34 @@
   </si>
   <si>
     <t>Käyttöpääoman lisäys/vähennys</t>
+  </si>
+  <si>
+    <t>Lifetime Oy</t>
+  </si>
+  <si>
+    <t>risto.paarni2022@lifetime.fi</t>
+  </si>
+  <si>
+    <t>Risto Päärni</t>
+  </si>
+  <si>
+    <t>040031910</t>
+  </si>
+  <si>
+    <t>risto.paarni@lifetime.fi</t>
+  </si>
+  <si>
+    <t>0400319010</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="#.##0"/>
-    <numFmt numFmtId="172" formatCode="0.0"/>
-    <numFmt numFmtId="173" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="#.##0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -1338,16 +1357,82 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="173" fontId="3" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="12" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1355,164 +1440,98 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="12" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="12" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="12" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="173" fontId="3" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="173" fontId="3" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="173" fontId="3" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="173" fontId="3" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="3" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="3" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="173" fontId="3" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlinkki" xfId="1" builtinId="8"/>
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
-    <cellStyle name="Otsikkokenttä" xfId="2"/>
-    <cellStyle name="Syötekenttä" xfId="3"/>
+    <cellStyle name="Otsikkokenttä" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Syötekenttä" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1908,10 +1927,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1956,9 +1977,11 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E4" s="69"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
+      <c r="E4" s="56">
+        <v>44551</v>
+      </c>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
@@ -1978,24 +2001,32 @@
       <c r="U5" s="38"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="65"/>
+      <c r="B6" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="108" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="49"/>
       <c r="U6" s="38"/>
     </row>
     <row r="7" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2050,35 +2081,35 @@
       <c r="D9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="66" t="s">
+      <c r="E9" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="67"/>
-      <c r="G9" s="68"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="55"/>
       <c r="H9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="66" t="s">
+      <c r="I9" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="67"/>
-      <c r="K9" s="68"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="55"/>
       <c r="L9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="66" t="s">
+      <c r="M9" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="67"/>
-      <c r="O9" s="68"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="55"/>
       <c r="P9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="Q9" s="66" t="s">
+      <c r="Q9" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="R9" s="67"/>
-      <c r="S9" s="68"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="55"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
@@ -2086,22 +2117,30 @@
         <v>15</v>
       </c>
       <c r="C10" s="20"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="54"/>
+      <c r="D10" s="41">
+        <v>30</v>
+      </c>
+      <c r="E10" s="58"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="41">
+        <v>60</v>
+      </c>
+      <c r="I10" s="58"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="41">
+        <v>90</v>
+      </c>
+      <c r="M10" s="58"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="41">
+        <v>120</v>
+      </c>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="60"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
@@ -2111,22 +2150,30 @@
       <c r="C11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="54"/>
+      <c r="D11" s="41">
+        <v>15</v>
+      </c>
+      <c r="E11" s="58"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="41">
+        <v>15</v>
+      </c>
+      <c r="I11" s="58"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="41">
+        <v>15</v>
+      </c>
+      <c r="M11" s="58"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="41">
+        <v>15</v>
+      </c>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="60"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
@@ -2136,40 +2183,40 @@
       <c r="C12" s="20"/>
       <c r="D12" s="44">
         <f>SUM(D10:D11)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="60"/>
-      <c r="G12" s="61"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="66"/>
       <c r="H12" s="44">
         <f>SUM(H10:H11)</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="59">
+        <v>75</v>
+      </c>
+      <c r="I12" s="64">
         <v>100</v>
       </c>
-      <c r="J12" s="60"/>
-      <c r="K12" s="61"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="66"/>
       <c r="L12" s="44">
         <f>SUM(L10:L11)</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="M12" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="60"/>
-      <c r="O12" s="61"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="66"/>
       <c r="P12" s="44">
         <f>SUM(P10:P11)</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q12" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="R12" s="60"/>
-      <c r="S12" s="61"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="66"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
@@ -2180,33 +2227,33 @@
         <v>21</v>
       </c>
       <c r="D13" s="41"/>
-      <c r="E13" s="56" t="str">
+      <c r="E13" s="61">
         <f>IF(ISERROR(D13/D$12*100),"-",D13/D$12*100)</f>
-        <v>-</v>
-      </c>
-      <c r="F13" s="57"/>
-      <c r="G13" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="62"/>
+      <c r="G13" s="63"/>
       <c r="H13" s="41"/>
-      <c r="I13" s="56" t="str">
+      <c r="I13" s="61">
         <f>IF(ISERROR(H13/H$12*100),"-",H13/H$12*100)</f>
-        <v>-</v>
-      </c>
-      <c r="J13" s="57"/>
-      <c r="K13" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="62"/>
+      <c r="K13" s="63"/>
       <c r="L13" s="41"/>
-      <c r="M13" s="56" t="str">
+      <c r="M13" s="61">
         <f>IF(ISERROR(L13/L$12*100),"-",L13/L$12*100)</f>
-        <v>-</v>
-      </c>
-      <c r="N13" s="57"/>
-      <c r="O13" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="62"/>
+      <c r="O13" s="63"/>
       <c r="P13" s="41"/>
-      <c r="Q13" s="56" t="str">
+      <c r="Q13" s="61">
         <f>IF(ISERROR(P13/P$12*100),"-",P13/P$12*100)</f>
-        <v>-</v>
-      </c>
-      <c r="R13" s="57"/>
-      <c r="S13" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="62"/>
+      <c r="S13" s="63"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
@@ -2217,33 +2264,33 @@
         <v>21</v>
       </c>
       <c r="D14" s="41"/>
-      <c r="E14" s="56" t="str">
+      <c r="E14" s="61">
         <f t="shared" ref="E14:E28" si="0">IF(ISERROR(D14/D$12*100),"-",D14/D$12*100)</f>
-        <v>-</v>
-      </c>
-      <c r="F14" s="57"/>
-      <c r="G14" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="62"/>
+      <c r="G14" s="63"/>
       <c r="H14" s="41"/>
-      <c r="I14" s="56" t="str">
+      <c r="I14" s="61">
         <f t="shared" ref="I14:I28" si="1">IF(ISERROR(H14/H$12*100),"-",H14/H$12*100)</f>
-        <v>-</v>
-      </c>
-      <c r="J14" s="57"/>
-      <c r="K14" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="62"/>
+      <c r="K14" s="63"/>
       <c r="L14" s="41"/>
-      <c r="M14" s="56" t="str">
+      <c r="M14" s="61">
         <f t="shared" ref="M14:M28" si="2">IF(ISERROR(L14/L$12*100),"-",L14/L$12*100)</f>
-        <v>-</v>
-      </c>
-      <c r="N14" s="57"/>
-      <c r="O14" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="62"/>
+      <c r="O14" s="63"/>
       <c r="P14" s="41"/>
-      <c r="Q14" s="56" t="str">
+      <c r="Q14" s="61">
         <f t="shared" ref="Q14:Q28" si="3">IF(ISERROR(P14/P$12*100),"-",P14/P$12*100)</f>
-        <v>-</v>
-      </c>
-      <c r="R14" s="57"/>
-      <c r="S14" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="62"/>
+      <c r="S14" s="63"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
@@ -2254,33 +2301,33 @@
         <v>21</v>
       </c>
       <c r="D15" s="41"/>
-      <c r="E15" s="56" t="str">
+      <c r="E15" s="61">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="F15" s="57"/>
-      <c r="G15" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="62"/>
+      <c r="G15" s="63"/>
       <c r="H15" s="41"/>
-      <c r="I15" s="56" t="str">
+      <c r="I15" s="61">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="J15" s="57"/>
-      <c r="K15" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="62"/>
+      <c r="K15" s="63"/>
       <c r="L15" s="41"/>
-      <c r="M15" s="56" t="str">
+      <c r="M15" s="61">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="N15" s="57"/>
-      <c r="O15" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="62"/>
+      <c r="O15" s="63"/>
       <c r="P15" s="41"/>
-      <c r="Q15" s="56" t="str">
+      <c r="Q15" s="61">
         <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="R15" s="57"/>
-      <c r="S15" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="62"/>
+      <c r="S15" s="63"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
@@ -2291,33 +2338,33 @@
         <v>21</v>
       </c>
       <c r="D16" s="41"/>
-      <c r="E16" s="56" t="str">
+      <c r="E16" s="61">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="F16" s="57"/>
-      <c r="G16" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="62"/>
+      <c r="G16" s="63"/>
       <c r="H16" s="41"/>
-      <c r="I16" s="56" t="str">
+      <c r="I16" s="61">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="J16" s="57"/>
-      <c r="K16" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="62"/>
+      <c r="K16" s="63"/>
       <c r="L16" s="41"/>
-      <c r="M16" s="56" t="str">
+      <c r="M16" s="61">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="N16" s="57"/>
-      <c r="O16" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="62"/>
+      <c r="O16" s="63"/>
       <c r="P16" s="41"/>
-      <c r="Q16" s="56" t="str">
+      <c r="Q16" s="61">
         <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="R16" s="57"/>
-      <c r="S16" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="62"/>
+      <c r="S16" s="63"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
@@ -2328,33 +2375,33 @@
         <v>26</v>
       </c>
       <c r="D17" s="41"/>
-      <c r="E17" s="56" t="str">
+      <c r="E17" s="61">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="F17" s="57"/>
-      <c r="G17" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="62"/>
+      <c r="G17" s="63"/>
       <c r="H17" s="41"/>
-      <c r="I17" s="56" t="str">
+      <c r="I17" s="61">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="J17" s="57"/>
-      <c r="K17" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="62"/>
+      <c r="K17" s="63"/>
       <c r="L17" s="41"/>
-      <c r="M17" s="56" t="str">
+      <c r="M17" s="61">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="N17" s="57"/>
-      <c r="O17" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="62"/>
+      <c r="O17" s="63"/>
       <c r="P17" s="41"/>
-      <c r="Q17" s="56" t="str">
+      <c r="Q17" s="61">
         <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="R17" s="57"/>
-      <c r="S17" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="62"/>
+      <c r="S17" s="63"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
@@ -2366,44 +2413,44 @@
       </c>
       <c r="D18" s="44">
         <f>SUM(D12,-D13,-D14,-D15,-D16,D17)</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="56" t="str">
+        <v>45</v>
+      </c>
+      <c r="E18" s="61">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="F18" s="57"/>
-      <c r="G18" s="58"/>
+        <v>100</v>
+      </c>
+      <c r="F18" s="62"/>
+      <c r="G18" s="63"/>
       <c r="H18" s="44">
         <f>SUM(H12,-H13,-H14,-H15,-H16,H17)</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="56" t="str">
+        <v>75</v>
+      </c>
+      <c r="I18" s="61">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="J18" s="57"/>
-      <c r="K18" s="58"/>
+        <v>100</v>
+      </c>
+      <c r="J18" s="62"/>
+      <c r="K18" s="63"/>
       <c r="L18" s="44">
         <f>SUM(L12,-L13,-L14,-L15,-L16,L17)</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="56" t="str">
+        <v>105</v>
+      </c>
+      <c r="M18" s="61">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="N18" s="57"/>
-      <c r="O18" s="58"/>
+        <v>100</v>
+      </c>
+      <c r="N18" s="62"/>
+      <c r="O18" s="63"/>
       <c r="P18" s="44">
         <f>SUM(P12,-P13,-P14,-P15,-P16,P17)</f>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="56" t="str">
+        <v>135</v>
+      </c>
+      <c r="Q18" s="61">
         <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="R18" s="57"/>
-      <c r="S18" s="58"/>
+        <v>100</v>
+      </c>
+      <c r="R18" s="62"/>
+      <c r="S18" s="63"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B19" s="19" t="s">
@@ -2413,33 +2460,33 @@
         <v>21</v>
       </c>
       <c r="D19" s="41"/>
-      <c r="E19" s="56" t="str">
+      <c r="E19" s="61">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="F19" s="57"/>
-      <c r="G19" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="62"/>
+      <c r="G19" s="63"/>
       <c r="H19" s="41"/>
-      <c r="I19" s="56" t="str">
+      <c r="I19" s="61">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="J19" s="57"/>
-      <c r="K19" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="62"/>
+      <c r="K19" s="63"/>
       <c r="L19" s="41"/>
-      <c r="M19" s="56" t="str">
+      <c r="M19" s="61">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="N19" s="57"/>
-      <c r="O19" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="62"/>
+      <c r="O19" s="63"/>
       <c r="P19" s="41"/>
-      <c r="Q19" s="56" t="str">
+      <c r="Q19" s="61">
         <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="R19" s="57"/>
-      <c r="S19" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="62"/>
+      <c r="S19" s="63"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B20" s="43" t="s">
@@ -2450,44 +2497,44 @@
       </c>
       <c r="D20" s="44">
         <f>SUM(D18,-D19)</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="56" t="str">
+        <v>45</v>
+      </c>
+      <c r="E20" s="61">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="F20" s="57"/>
-      <c r="G20" s="58"/>
+        <v>100</v>
+      </c>
+      <c r="F20" s="62"/>
+      <c r="G20" s="63"/>
       <c r="H20" s="44">
         <f>SUM(H18,-H19)</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="56" t="str">
+        <v>75</v>
+      </c>
+      <c r="I20" s="61">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="J20" s="57"/>
-      <c r="K20" s="58"/>
+        <v>100</v>
+      </c>
+      <c r="J20" s="62"/>
+      <c r="K20" s="63"/>
       <c r="L20" s="44">
         <f>SUM(L18,-L19)</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="56" t="str">
+        <v>105</v>
+      </c>
+      <c r="M20" s="61">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="N20" s="57"/>
-      <c r="O20" s="58"/>
+        <v>100</v>
+      </c>
+      <c r="N20" s="62"/>
+      <c r="O20" s="63"/>
       <c r="P20" s="44">
         <f>SUM(P18,-P19)</f>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="56" t="str">
+        <v>135</v>
+      </c>
+      <c r="Q20" s="61">
         <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="R20" s="57"/>
-      <c r="S20" s="58"/>
+        <v>100</v>
+      </c>
+      <c r="R20" s="62"/>
+      <c r="S20" s="63"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B21" s="19" t="s">
@@ -2497,33 +2544,33 @@
         <v>17</v>
       </c>
       <c r="D21" s="41"/>
-      <c r="E21" s="56" t="str">
+      <c r="E21" s="61">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="F21" s="57"/>
-      <c r="G21" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="62"/>
+      <c r="G21" s="63"/>
       <c r="H21" s="41"/>
-      <c r="I21" s="56" t="str">
+      <c r="I21" s="61">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="J21" s="57"/>
-      <c r="K21" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="62"/>
+      <c r="K21" s="63"/>
       <c r="L21" s="41"/>
-      <c r="M21" s="56" t="str">
+      <c r="M21" s="61">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="N21" s="57"/>
-      <c r="O21" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="62"/>
+      <c r="O21" s="63"/>
       <c r="P21" s="41"/>
-      <c r="Q21" s="56" t="str">
+      <c r="Q21" s="61">
         <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="R21" s="57"/>
-      <c r="S21" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="62"/>
+      <c r="S21" s="63"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B22" s="19" t="s">
@@ -2533,33 +2580,33 @@
         <v>17</v>
       </c>
       <c r="D22" s="41"/>
-      <c r="E22" s="56" t="str">
+      <c r="E22" s="61">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="F22" s="57"/>
-      <c r="G22" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="62"/>
+      <c r="G22" s="63"/>
       <c r="H22" s="41"/>
-      <c r="I22" s="56" t="str">
+      <c r="I22" s="61">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="J22" s="57"/>
-      <c r="K22" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="62"/>
+      <c r="K22" s="63"/>
       <c r="L22" s="41"/>
-      <c r="M22" s="56" t="str">
+      <c r="M22" s="61">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="N22" s="57"/>
-      <c r="O22" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="62"/>
+      <c r="O22" s="63"/>
       <c r="P22" s="41"/>
-      <c r="Q22" s="56" t="str">
+      <c r="Q22" s="61">
         <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="R22" s="57"/>
-      <c r="S22" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="62"/>
+      <c r="S22" s="63"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B23" s="19" t="s">
@@ -2569,33 +2616,33 @@
         <v>21</v>
       </c>
       <c r="D23" s="41"/>
-      <c r="E23" s="56" t="str">
+      <c r="E23" s="61">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="F23" s="57"/>
-      <c r="G23" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="62"/>
+      <c r="G23" s="63"/>
       <c r="H23" s="41"/>
-      <c r="I23" s="56" t="str">
+      <c r="I23" s="61">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="J23" s="57"/>
-      <c r="K23" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="62"/>
+      <c r="K23" s="63"/>
       <c r="L23" s="41"/>
-      <c r="M23" s="56" t="str">
+      <c r="M23" s="61">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="N23" s="57"/>
-      <c r="O23" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="62"/>
+      <c r="O23" s="63"/>
       <c r="P23" s="41"/>
-      <c r="Q23" s="56" t="str">
+      <c r="Q23" s="61">
         <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="R23" s="57"/>
-      <c r="S23" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="62"/>
+      <c r="S23" s="63"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B24" s="19" t="s">
@@ -2605,33 +2652,33 @@
         <v>21</v>
       </c>
       <c r="D24" s="41"/>
-      <c r="E24" s="56" t="str">
+      <c r="E24" s="61">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="F24" s="57"/>
-      <c r="G24" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="62"/>
+      <c r="G24" s="63"/>
       <c r="H24" s="41"/>
-      <c r="I24" s="56" t="str">
+      <c r="I24" s="61">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="J24" s="57"/>
-      <c r="K24" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="62"/>
+      <c r="K24" s="63"/>
       <c r="L24" s="41"/>
-      <c r="M24" s="56" t="str">
+      <c r="M24" s="61">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="N24" s="57"/>
-      <c r="O24" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="62"/>
+      <c r="O24" s="63"/>
       <c r="P24" s="41"/>
-      <c r="Q24" s="56" t="str">
+      <c r="Q24" s="61">
         <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="R24" s="57"/>
-      <c r="S24" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="62"/>
+      <c r="S24" s="63"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B25" s="43" t="s">
@@ -2642,44 +2689,44 @@
       </c>
       <c r="D25" s="44">
         <f>SUM(D20,D21,D22,-D23,-D24)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="56" t="str">
+        <v>45</v>
+      </c>
+      <c r="E25" s="61">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="F25" s="57"/>
-      <c r="G25" s="58"/>
+        <v>100</v>
+      </c>
+      <c r="F25" s="62"/>
+      <c r="G25" s="63"/>
       <c r="H25" s="44">
         <f>SUM(H20,H21,H22,-H23,-H24)</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="56" t="str">
+        <v>75</v>
+      </c>
+      <c r="I25" s="61">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="J25" s="57"/>
-      <c r="K25" s="58"/>
+        <v>100</v>
+      </c>
+      <c r="J25" s="62"/>
+      <c r="K25" s="63"/>
       <c r="L25" s="44">
         <f>SUM(L20,L21,L22,-L23,-L24)</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="56" t="str">
+        <v>105</v>
+      </c>
+      <c r="M25" s="61">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="N25" s="57"/>
-      <c r="O25" s="58"/>
+        <v>100</v>
+      </c>
+      <c r="N25" s="62"/>
+      <c r="O25" s="63"/>
       <c r="P25" s="44">
         <f>SUM(P20,P21,P22,-P23,-P24)</f>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="56" t="str">
+        <v>135</v>
+      </c>
+      <c r="Q25" s="61">
         <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="R25" s="57"/>
-      <c r="S25" s="58"/>
+        <v>100</v>
+      </c>
+      <c r="R25" s="62"/>
+      <c r="S25" s="63"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B26" s="19" t="s">
@@ -2689,33 +2736,33 @@
         <v>17</v>
       </c>
       <c r="D26" s="41"/>
-      <c r="E26" s="56" t="str">
+      <c r="E26" s="61">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="F26" s="57"/>
-      <c r="G26" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="62"/>
+      <c r="G26" s="63"/>
       <c r="H26" s="41"/>
-      <c r="I26" s="56" t="str">
+      <c r="I26" s="61">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="J26" s="57"/>
-      <c r="K26" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="62"/>
+      <c r="K26" s="63"/>
       <c r="L26" s="41"/>
-      <c r="M26" s="56" t="str">
+      <c r="M26" s="61">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="N26" s="57"/>
-      <c r="O26" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="62"/>
+      <c r="O26" s="63"/>
       <c r="P26" s="41"/>
-      <c r="Q26" s="56" t="str">
+      <c r="Q26" s="61">
         <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="R26" s="57"/>
-      <c r="S26" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="62"/>
+      <c r="S26" s="63"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B27" s="19" t="s">
@@ -2725,33 +2772,33 @@
         <v>21</v>
       </c>
       <c r="D27" s="41"/>
-      <c r="E27" s="56" t="str">
+      <c r="E27" s="61">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="F27" s="57"/>
-      <c r="G27" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="62"/>
+      <c r="G27" s="63"/>
       <c r="H27" s="41"/>
-      <c r="I27" s="56" t="str">
+      <c r="I27" s="61">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="J27" s="57"/>
-      <c r="K27" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="62"/>
+      <c r="K27" s="63"/>
       <c r="L27" s="41"/>
-      <c r="M27" s="56" t="str">
+      <c r="M27" s="61">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="N27" s="57"/>
-      <c r="O27" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="62"/>
+      <c r="O27" s="63"/>
       <c r="P27" s="41"/>
-      <c r="Q27" s="56" t="str">
+      <c r="Q27" s="61">
         <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="R27" s="57"/>
-      <c r="S27" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="62"/>
+      <c r="S27" s="63"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B28" s="43" t="s">
@@ -2762,64 +2809,64 @@
       </c>
       <c r="D28" s="44">
         <f>SUM(D25,D26,-D27)</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="56" t="str">
+        <v>45</v>
+      </c>
+      <c r="E28" s="61">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="F28" s="57"/>
-      <c r="G28" s="58"/>
+        <v>100</v>
+      </c>
+      <c r="F28" s="62"/>
+      <c r="G28" s="63"/>
       <c r="H28" s="44">
         <f>SUM(H25,H26,-H27)</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="56" t="str">
+        <v>75</v>
+      </c>
+      <c r="I28" s="61">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="J28" s="57"/>
-      <c r="K28" s="58"/>
+        <v>100</v>
+      </c>
+      <c r="J28" s="62"/>
+      <c r="K28" s="63"/>
       <c r="L28" s="44">
         <f>SUM(L25,L26,-L27)</f>
-        <v>0</v>
-      </c>
-      <c r="M28" s="56" t="str">
+        <v>105</v>
+      </c>
+      <c r="M28" s="61">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="N28" s="57"/>
-      <c r="O28" s="58"/>
+        <v>100</v>
+      </c>
+      <c r="N28" s="62"/>
+      <c r="O28" s="63"/>
       <c r="P28" s="44">
         <f>SUM(P25,P26,-P27)</f>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="56" t="str">
+        <v>135</v>
+      </c>
+      <c r="Q28" s="61">
         <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="R28" s="57"/>
-      <c r="S28" s="58"/>
+        <v>100</v>
+      </c>
+      <c r="R28" s="62"/>
+      <c r="S28" s="63"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="47"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="48"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="68"/>
+      <c r="P29" s="68"/>
+      <c r="Q29" s="68"/>
+      <c r="R29" s="68"/>
+      <c r="S29" s="68"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B30" s="19" t="s">
@@ -2827,21 +2874,21 @@
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="36"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="51"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="71"/>
       <c r="H30" s="37"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="54"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="60"/>
       <c r="L30" s="37"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="54"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="60"/>
       <c r="P30" s="37"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="53"/>
-      <c r="S30" s="55"/>
+      <c r="Q30" s="58"/>
+      <c r="R30" s="59"/>
+      <c r="S30" s="72"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B31" s="8"/>
@@ -3030,14 +3077,79 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="B29:S29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="Q12:S12"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="I11:K11"/>
@@ -3047,97 +3159,35 @@
     <mergeCell ref="I10:K10"/>
     <mergeCell ref="M10:O10"/>
     <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="Q27:S27"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="B29:S29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="Q9:S9"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{990B8D4C-676F-481E-8F0F-A0879A6AE3EB}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
-  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="19" max="1048575" man="1"/>
   </colBreaks>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:Y86"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42:K42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8:Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3168,14 +3218,14 @@
         <v>0</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="I2" s="108" t="s">
+      <c r="I2" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
       <c r="O2" s="25"/>
       <c r="P2" s="25"/>
       <c r="Q2" s="25"/>
@@ -3197,9 +3247,11 @@
         <v>13</v>
       </c>
       <c r="C4" s="9"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
+      <c r="I4" s="56">
+        <v>44551</v>
+      </c>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
@@ -3215,18 +3267,22 @@
       <c r="S5" s="7"/>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B6" s="103"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="105"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="106"/>
-      <c r="M6" s="106"/>
-      <c r="N6" s="106"/>
-      <c r="O6" s="106"/>
-      <c r="P6" s="106"/>
-      <c r="Q6" s="106"/>
+      <c r="B6" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="74"/>
+      <c r="D6" s="75"/>
+      <c r="I6" s="109" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
     </row>
@@ -3244,18 +3300,22 @@
       <c r="S7" s="7"/>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B8" s="103"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="105"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="107"/>
+      <c r="B8" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="74"/>
+      <c r="D8" s="75"/>
+      <c r="I8" s="76" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="77"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
       <c r="V8" s="38"/>
@@ -3308,56 +3368,56 @@
         <v>42</v>
       </c>
       <c r="C12" s="32"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="100"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="100"/>
-      <c r="Q12" s="101"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="100"/>
-      <c r="T12" s="101"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="79"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="78"/>
+      <c r="T12" s="79"/>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B13" s="28">
         <v>1</v>
       </c>
-      <c r="D13" s="96" t="s">
+      <c r="D13" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
       <c r="H13" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="102">
+      <c r="I13" s="86">
         <f>SUM('T2'!D25,'T2'!D19)</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="81"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="80">
+        <v>45</v>
+      </c>
+      <c r="J13" s="84"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="83">
         <f>SUM('T2'!H25,'T2'!H19)</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="81"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="80">
+        <v>75</v>
+      </c>
+      <c r="M13" s="84"/>
+      <c r="N13" s="85"/>
+      <c r="O13" s="83">
         <f>SUM('T2'!L25,'T2'!L19)</f>
-        <v>0</v>
-      </c>
-      <c r="P13" s="81"/>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="80">
+        <v>105</v>
+      </c>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="85"/>
+      <c r="R13" s="83">
         <f>SUM('T2'!P25,'T2'!P19)</f>
-        <v>0</v>
-      </c>
-      <c r="S13" s="81"/>
-      <c r="T13" s="82"/>
+        <v>135</v>
+      </c>
+      <c r="S13" s="84"/>
+      <c r="T13" s="85"/>
       <c r="V13" s="39"/>
       <c r="W13" s="39"/>
       <c r="X13" s="39"/>
@@ -3367,599 +3427,599 @@
       <c r="B14" s="28">
         <v>2</v>
       </c>
-      <c r="D14" s="96" t="s">
+      <c r="D14" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
       <c r="H14" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="80">
+      <c r="I14" s="83">
         <f>SUM('T2'!D26,-'T2'!D27)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="81"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="80">
+      <c r="J14" s="84"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="83">
         <f>SUM('T2'!H26,-'T2'!H27)</f>
         <v>0</v>
       </c>
-      <c r="M14" s="81"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="80">
+      <c r="M14" s="84"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="83">
         <f>SUM('T2'!L26,-'T2'!L27)</f>
         <v>0</v>
       </c>
-      <c r="P14" s="81"/>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="80">
+      <c r="P14" s="84"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="83">
         <f>SUM('T2'!P26,-'T2'!P27)</f>
         <v>0</v>
       </c>
-      <c r="S14" s="81"/>
-      <c r="T14" s="82"/>
+      <c r="S14" s="84"/>
+      <c r="T14" s="85"/>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B15" s="28">
         <v>3</v>
       </c>
-      <c r="D15" s="96" t="s">
+      <c r="D15" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
       <c r="H15" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="83"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="85"/>
-      <c r="O15" s="83"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="85"/>
-      <c r="R15" s="83"/>
-      <c r="S15" s="84"/>
-      <c r="T15" s="85"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="89"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="88"/>
+      <c r="Q15" s="89"/>
+      <c r="R15" s="87"/>
+      <c r="S15" s="88"/>
+      <c r="T15" s="89"/>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B16" s="28">
         <v>4</v>
       </c>
-      <c r="D16" s="96" t="s">
+      <c r="D16" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
       <c r="H16" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="80"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="82"/>
-      <c r="O16" s="80"/>
-      <c r="P16" s="81"/>
-      <c r="Q16" s="82"/>
-      <c r="R16" s="80"/>
-      <c r="S16" s="81"/>
-      <c r="T16" s="82"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="83"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="83"/>
+      <c r="S16" s="84"/>
+      <c r="T16" s="85"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="96" t="s">
+      <c r="D17" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
       <c r="H17" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="83"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="83"/>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="85"/>
-      <c r="R17" s="83"/>
-      <c r="S17" s="84"/>
-      <c r="T17" s="85"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="88"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="88"/>
+      <c r="Q17" s="89"/>
+      <c r="R17" s="87"/>
+      <c r="S17" s="88"/>
+      <c r="T17" s="89"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="28">
         <v>6</v>
       </c>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
       <c r="H18" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="83"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="85"/>
-      <c r="O18" s="83"/>
-      <c r="P18" s="84"/>
-      <c r="Q18" s="85"/>
-      <c r="R18" s="83"/>
-      <c r="S18" s="84"/>
-      <c r="T18" s="85"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="88"/>
+      <c r="N18" s="89"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="88"/>
+      <c r="Q18" s="89"/>
+      <c r="R18" s="87"/>
+      <c r="S18" s="88"/>
+      <c r="T18" s="89"/>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="45">
         <v>7</v>
       </c>
       <c r="C19" s="45"/>
-      <c r="D19" s="89" t="s">
+      <c r="D19" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
       <c r="H19" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="74">
+      <c r="I19" s="95">
         <f>SUM(I13:K18)</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="75"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="74">
+        <v>45</v>
+      </c>
+      <c r="J19" s="96"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="95">
         <f>SUM(L13:N18)</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="75"/>
-      <c r="N19" s="76"/>
-      <c r="O19" s="74">
+        <v>75</v>
+      </c>
+      <c r="M19" s="96"/>
+      <c r="N19" s="97"/>
+      <c r="O19" s="95">
         <f>SUM(O13:Q18)</f>
-        <v>0</v>
-      </c>
-      <c r="P19" s="75"/>
-      <c r="Q19" s="76"/>
-      <c r="R19" s="74">
+        <v>105</v>
+      </c>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="97"/>
+      <c r="R19" s="95">
         <f>SUM(R13:T18)</f>
-        <v>0</v>
-      </c>
-      <c r="S19" s="75"/>
-      <c r="T19" s="76"/>
+        <v>135</v>
+      </c>
+      <c r="S19" s="96"/>
+      <c r="T19" s="97"/>
     </row>
     <row r="20" spans="2:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="89" t="s">
+      <c r="B20" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="97"/>
-      <c r="M20" s="98"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="97"/>
-      <c r="P20" s="98"/>
-      <c r="Q20" s="99"/>
-      <c r="R20" s="97"/>
-      <c r="S20" s="98"/>
-      <c r="T20" s="99"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="93"/>
+      <c r="O20" s="91"/>
+      <c r="P20" s="92"/>
+      <c r="Q20" s="93"/>
+      <c r="R20" s="91"/>
+      <c r="S20" s="92"/>
+      <c r="T20" s="93"/>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="28">
         <v>8</v>
       </c>
-      <c r="D21" s="96" t="s">
+      <c r="D21" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
       <c r="H21" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="83"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="85"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="85"/>
-      <c r="O21" s="83"/>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="85"/>
-      <c r="R21" s="83"/>
-      <c r="S21" s="84"/>
-      <c r="T21" s="85"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="87"/>
+      <c r="M21" s="88"/>
+      <c r="N21" s="89"/>
+      <c r="O21" s="87"/>
+      <c r="P21" s="88"/>
+      <c r="Q21" s="89"/>
+      <c r="R21" s="87"/>
+      <c r="S21" s="88"/>
+      <c r="T21" s="89"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="28">
         <v>9</v>
       </c>
-      <c r="D22" s="96" t="s">
+      <c r="D22" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
       <c r="H22" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="83"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="85"/>
-      <c r="O22" s="83"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="85"/>
-      <c r="R22" s="83"/>
-      <c r="S22" s="84"/>
-      <c r="T22" s="85"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="89"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="88"/>
+      <c r="Q22" s="89"/>
+      <c r="R22" s="87"/>
+      <c r="S22" s="88"/>
+      <c r="T22" s="89"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="28">
         <v>10</v>
       </c>
-      <c r="D23" s="96" t="s">
+      <c r="D23" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
       <c r="H23" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="83"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="85"/>
-      <c r="O23" s="83"/>
-      <c r="P23" s="84"/>
-      <c r="Q23" s="85"/>
-      <c r="R23" s="83"/>
-      <c r="S23" s="84"/>
-      <c r="T23" s="85"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="89"/>
+      <c r="O23" s="87"/>
+      <c r="P23" s="88"/>
+      <c r="Q23" s="89"/>
+      <c r="R23" s="87"/>
+      <c r="S23" s="88"/>
+      <c r="T23" s="89"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="28">
         <v>11</v>
       </c>
-      <c r="D24" s="96" t="s">
+      <c r="D24" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
       <c r="H24" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="83"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="85"/>
-      <c r="O24" s="83"/>
-      <c r="P24" s="84"/>
-      <c r="Q24" s="85"/>
-      <c r="R24" s="83"/>
-      <c r="S24" s="84"/>
-      <c r="T24" s="85"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="88"/>
+      <c r="N24" s="89"/>
+      <c r="O24" s="87"/>
+      <c r="P24" s="88"/>
+      <c r="Q24" s="89"/>
+      <c r="R24" s="87"/>
+      <c r="S24" s="88"/>
+      <c r="T24" s="89"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="28">
         <v>12</v>
       </c>
-      <c r="D25" s="96" t="s">
+      <c r="D25" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
       <c r="H25" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="80">
+      <c r="I25" s="83">
         <f>I42</f>
         <v>0</v>
       </c>
-      <c r="J25" s="81"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="80">
+      <c r="J25" s="84"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="83">
         <f>L42</f>
         <v>0</v>
       </c>
-      <c r="M25" s="81"/>
-      <c r="N25" s="82"/>
-      <c r="O25" s="80">
+      <c r="M25" s="84"/>
+      <c r="N25" s="85"/>
+      <c r="O25" s="83">
         <f>O42</f>
         <v>0</v>
       </c>
-      <c r="P25" s="81"/>
-      <c r="Q25" s="82"/>
-      <c r="R25" s="80">
+      <c r="P25" s="84"/>
+      <c r="Q25" s="85"/>
+      <c r="R25" s="83">
         <f>R42</f>
         <v>0</v>
       </c>
-      <c r="S25" s="81"/>
-      <c r="T25" s="82"/>
+      <c r="S25" s="84"/>
+      <c r="T25" s="85"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="28">
         <v>13</v>
       </c>
-      <c r="D26" s="96" t="s">
+      <c r="D26" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
       <c r="H26" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="83"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="85"/>
-      <c r="L26" s="83"/>
-      <c r="M26" s="84"/>
-      <c r="N26" s="85"/>
-      <c r="O26" s="83"/>
-      <c r="P26" s="84"/>
-      <c r="Q26" s="85"/>
-      <c r="R26" s="83"/>
-      <c r="S26" s="84"/>
-      <c r="T26" s="85"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="87"/>
+      <c r="M26" s="88"/>
+      <c r="N26" s="89"/>
+      <c r="O26" s="87"/>
+      <c r="P26" s="88"/>
+      <c r="Q26" s="89"/>
+      <c r="R26" s="87"/>
+      <c r="S26" s="88"/>
+      <c r="T26" s="89"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="28">
         <v>14</v>
       </c>
-      <c r="D27" s="96" t="s">
+      <c r="D27" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
       <c r="H27" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="80"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="80"/>
-      <c r="M27" s="81"/>
-      <c r="N27" s="82"/>
-      <c r="O27" s="80"/>
-      <c r="P27" s="81"/>
-      <c r="Q27" s="82"/>
-      <c r="R27" s="80"/>
-      <c r="S27" s="81"/>
-      <c r="T27" s="82"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="83"/>
+      <c r="M27" s="84"/>
+      <c r="N27" s="85"/>
+      <c r="O27" s="83"/>
+      <c r="P27" s="84"/>
+      <c r="Q27" s="85"/>
+      <c r="R27" s="83"/>
+      <c r="S27" s="84"/>
+      <c r="T27" s="85"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="28">
         <v>15</v>
       </c>
-      <c r="D28" s="96" t="s">
+      <c r="D28" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
       <c r="H28" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="83"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="84"/>
-      <c r="N28" s="85"/>
-      <c r="O28" s="83"/>
-      <c r="P28" s="84"/>
-      <c r="Q28" s="85"/>
-      <c r="R28" s="83"/>
-      <c r="S28" s="84"/>
-      <c r="T28" s="85"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="88"/>
+      <c r="K28" s="89"/>
+      <c r="L28" s="87"/>
+      <c r="M28" s="88"/>
+      <c r="N28" s="89"/>
+      <c r="O28" s="87"/>
+      <c r="P28" s="88"/>
+      <c r="Q28" s="89"/>
+      <c r="R28" s="87"/>
+      <c r="S28" s="88"/>
+      <c r="T28" s="89"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="28">
         <v>16</v>
       </c>
-      <c r="D29" s="96" t="s">
+      <c r="D29" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
       <c r="H29" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I29" s="83"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="84"/>
-      <c r="N29" s="85"/>
-      <c r="O29" s="83"/>
-      <c r="P29" s="84"/>
-      <c r="Q29" s="85"/>
-      <c r="R29" s="83"/>
-      <c r="S29" s="84"/>
-      <c r="T29" s="85"/>
+      <c r="I29" s="87"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="89"/>
+      <c r="L29" s="87"/>
+      <c r="M29" s="88"/>
+      <c r="N29" s="89"/>
+      <c r="O29" s="87"/>
+      <c r="P29" s="88"/>
+      <c r="Q29" s="89"/>
+      <c r="R29" s="87"/>
+      <c r="S29" s="88"/>
+      <c r="T29" s="89"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="28">
         <v>17</v>
       </c>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
       <c r="H30" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I30" s="83"/>
-      <c r="J30" s="84"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="85"/>
-      <c r="O30" s="83"/>
-      <c r="P30" s="84"/>
-      <c r="Q30" s="85"/>
-      <c r="R30" s="83"/>
-      <c r="S30" s="84"/>
-      <c r="T30" s="85"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="89"/>
+      <c r="L30" s="87"/>
+      <c r="M30" s="88"/>
+      <c r="N30" s="89"/>
+      <c r="O30" s="87"/>
+      <c r="P30" s="88"/>
+      <c r="Q30" s="89"/>
+      <c r="R30" s="87"/>
+      <c r="S30" s="88"/>
+      <c r="T30" s="89"/>
       <c r="V30" s="40"/>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="45">
         <v>18</v>
       </c>
-      <c r="D31" s="89" t="s">
+      <c r="D31" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="E31" s="95"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="95"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="94"/>
       <c r="H31" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="I31" s="74">
+      <c r="I31" s="95">
         <f>SUM(I21:K30)</f>
         <v>0</v>
       </c>
-      <c r="J31" s="75"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="74">
+      <c r="J31" s="96"/>
+      <c r="K31" s="97"/>
+      <c r="L31" s="95">
         <f>SUM(L21:N30)</f>
         <v>0</v>
       </c>
-      <c r="M31" s="75"/>
-      <c r="N31" s="76"/>
-      <c r="O31" s="74">
+      <c r="M31" s="96"/>
+      <c r="N31" s="97"/>
+      <c r="O31" s="95">
         <f>SUM(O21:Q30)</f>
         <v>0</v>
       </c>
-      <c r="P31" s="75"/>
-      <c r="Q31" s="76"/>
-      <c r="R31" s="74">
+      <c r="P31" s="96"/>
+      <c r="Q31" s="97"/>
+      <c r="R31" s="95">
         <f>SUM(R21:T30)</f>
         <v>0</v>
       </c>
-      <c r="S31" s="75"/>
-      <c r="T31" s="76"/>
+      <c r="S31" s="96"/>
+      <c r="T31" s="97"/>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="45">
         <v>19</v>
       </c>
-      <c r="D32" s="89" t="s">
+      <c r="D32" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="95"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="95"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="94"/>
       <c r="H32" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="I32" s="74">
+      <c r="I32" s="95">
         <f>SUM(I19,-I31)</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="75"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="74">
+        <v>45</v>
+      </c>
+      <c r="J32" s="96"/>
+      <c r="K32" s="97"/>
+      <c r="L32" s="95">
         <f>SUM(L19,-L31)</f>
-        <v>0</v>
-      </c>
-      <c r="M32" s="75"/>
-      <c r="N32" s="76"/>
-      <c r="O32" s="74">
+        <v>75</v>
+      </c>
+      <c r="M32" s="96"/>
+      <c r="N32" s="97"/>
+      <c r="O32" s="95">
         <f>SUM(O19,-O31)</f>
-        <v>0</v>
-      </c>
-      <c r="P32" s="75"/>
-      <c r="Q32" s="76"/>
-      <c r="R32" s="74">
+        <v>105</v>
+      </c>
+      <c r="P32" s="96"/>
+      <c r="Q32" s="97"/>
+      <c r="R32" s="95">
         <f>SUM(R19,-R31)</f>
-        <v>0</v>
-      </c>
-      <c r="S32" s="75"/>
-      <c r="T32" s="76"/>
+        <v>135</v>
+      </c>
+      <c r="S32" s="96"/>
+      <c r="T32" s="97"/>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="28">
         <v>20</v>
       </c>
-      <c r="D33" s="94" t="s">
+      <c r="D33" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="91"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="91"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
       <c r="H33" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="I33" s="80">
+      <c r="I33" s="83">
         <f>I32</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="81"/>
-      <c r="K33" s="82"/>
-      <c r="L33" s="80">
+        <v>45</v>
+      </c>
+      <c r="J33" s="84"/>
+      <c r="K33" s="85"/>
+      <c r="L33" s="83">
         <f>SUM(I33,L32)</f>
-        <v>0</v>
-      </c>
-      <c r="M33" s="81"/>
-      <c r="N33" s="82"/>
-      <c r="O33" s="80">
+        <v>120</v>
+      </c>
+      <c r="M33" s="84"/>
+      <c r="N33" s="85"/>
+      <c r="O33" s="83">
         <f>SUM(L33,O32)</f>
-        <v>0</v>
-      </c>
-      <c r="P33" s="81"/>
-      <c r="Q33" s="82"/>
-      <c r="R33" s="80">
+        <v>225</v>
+      </c>
+      <c r="P33" s="84"/>
+      <c r="Q33" s="85"/>
+      <c r="R33" s="83">
         <f>SUM(O33,R32)</f>
-        <v>0</v>
-      </c>
-      <c r="S33" s="81"/>
-      <c r="T33" s="82"/>
+        <v>360</v>
+      </c>
+      <c r="S33" s="84"/>
+      <c r="T33" s="85"/>
     </row>
     <row r="34" spans="2:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
-      <c r="F34" s="92" t="s">
+      <c r="F34" s="102" t="s">
         <v>62</v>
       </c>
-      <c r="G34" s="91"/>
-      <c r="H34" s="91"/>
-      <c r="I34" s="87"/>
-      <c r="J34" s="88"/>
-      <c r="K34" s="88"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="100"/>
+      <c r="I34" s="98"/>
+      <c r="J34" s="99"/>
+      <c r="K34" s="99"/>
       <c r="L34" s="28"/>
       <c r="M34" s="28"/>
       <c r="N34" s="28"/>
@@ -3971,27 +4031,27 @@
       <c r="T34" s="28"/>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B35" s="89" t="s">
+      <c r="B35" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="90"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="93"/>
-      <c r="H35" s="93"/>
-      <c r="I35" s="86"/>
-      <c r="J35" s="86"/>
-      <c r="K35" s="86"/>
-      <c r="L35" s="86"/>
-      <c r="M35" s="86"/>
-      <c r="N35" s="86"/>
-      <c r="O35" s="86"/>
-      <c r="P35" s="86"/>
-      <c r="Q35" s="86"/>
-      <c r="R35" s="86"/>
-      <c r="S35" s="86"/>
-      <c r="T35" s="86"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="101"/>
+      <c r="J35" s="101"/>
+      <c r="K35" s="101"/>
+      <c r="L35" s="101"/>
+      <c r="M35" s="101"/>
+      <c r="N35" s="101"/>
+      <c r="O35" s="101"/>
+      <c r="P35" s="101"/>
+      <c r="Q35" s="101"/>
+      <c r="R35" s="101"/>
+      <c r="S35" s="101"/>
+      <c r="T35" s="101"/>
       <c r="U35" s="1" t="s">
         <v>47</v>
       </c>
@@ -4007,21 +4067,21 @@
       <c r="E36" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="F36" s="83"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="85"/>
-      <c r="I36" s="83"/>
-      <c r="J36" s="84"/>
-      <c r="K36" s="85"/>
-      <c r="L36" s="83"/>
-      <c r="M36" s="84"/>
-      <c r="N36" s="85"/>
-      <c r="O36" s="83"/>
-      <c r="P36" s="84"/>
-      <c r="Q36" s="85"/>
-      <c r="R36" s="83"/>
-      <c r="S36" s="84"/>
-      <c r="T36" s="85"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="88"/>
+      <c r="H36" s="89"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="88"/>
+      <c r="K36" s="89"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="88"/>
+      <c r="N36" s="89"/>
+      <c r="O36" s="87"/>
+      <c r="P36" s="88"/>
+      <c r="Q36" s="89"/>
+      <c r="R36" s="87"/>
+      <c r="S36" s="88"/>
+      <c r="T36" s="89"/>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" s="28">
@@ -4033,21 +4093,21 @@
       <c r="E37" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="83"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="85"/>
-      <c r="I37" s="83"/>
-      <c r="J37" s="84"/>
-      <c r="K37" s="85"/>
-      <c r="L37" s="83"/>
-      <c r="M37" s="84"/>
-      <c r="N37" s="85"/>
-      <c r="O37" s="83"/>
-      <c r="P37" s="84"/>
-      <c r="Q37" s="85"/>
-      <c r="R37" s="83"/>
-      <c r="S37" s="84"/>
-      <c r="T37" s="85"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="88"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="87"/>
+      <c r="J37" s="88"/>
+      <c r="K37" s="89"/>
+      <c r="L37" s="87"/>
+      <c r="M37" s="88"/>
+      <c r="N37" s="89"/>
+      <c r="O37" s="87"/>
+      <c r="P37" s="88"/>
+      <c r="Q37" s="89"/>
+      <c r="R37" s="87"/>
+      <c r="S37" s="88"/>
+      <c r="T37" s="89"/>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38" s="28">
@@ -4059,21 +4119,21 @@
       <c r="E38" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="F38" s="83"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="85"/>
-      <c r="I38" s="83"/>
-      <c r="J38" s="84"/>
-      <c r="K38" s="85"/>
-      <c r="L38" s="83"/>
-      <c r="M38" s="84"/>
-      <c r="N38" s="85"/>
-      <c r="O38" s="83"/>
-      <c r="P38" s="84"/>
-      <c r="Q38" s="85"/>
-      <c r="R38" s="83"/>
-      <c r="S38" s="84"/>
-      <c r="T38" s="85"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="88"/>
+      <c r="H38" s="89"/>
+      <c r="I38" s="87"/>
+      <c r="J38" s="88"/>
+      <c r="K38" s="89"/>
+      <c r="L38" s="87"/>
+      <c r="M38" s="88"/>
+      <c r="N38" s="89"/>
+      <c r="O38" s="87"/>
+      <c r="P38" s="88"/>
+      <c r="Q38" s="89"/>
+      <c r="R38" s="87"/>
+      <c r="S38" s="88"/>
+      <c r="T38" s="89"/>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39" s="28">
@@ -4085,21 +4145,21 @@
       <c r="E39" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F39" s="83"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="83"/>
-      <c r="J39" s="84"/>
-      <c r="K39" s="85"/>
-      <c r="L39" s="83"/>
-      <c r="M39" s="84"/>
-      <c r="N39" s="85"/>
-      <c r="O39" s="83"/>
-      <c r="P39" s="84"/>
-      <c r="Q39" s="85"/>
-      <c r="R39" s="83"/>
-      <c r="S39" s="84"/>
-      <c r="T39" s="85"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="88"/>
+      <c r="H39" s="89"/>
+      <c r="I39" s="87"/>
+      <c r="J39" s="88"/>
+      <c r="K39" s="89"/>
+      <c r="L39" s="87"/>
+      <c r="M39" s="88"/>
+      <c r="N39" s="89"/>
+      <c r="O39" s="87"/>
+      <c r="P39" s="88"/>
+      <c r="Q39" s="89"/>
+      <c r="R39" s="87"/>
+      <c r="S39" s="88"/>
+      <c r="T39" s="89"/>
       <c r="U39" s="46"/>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.25">
@@ -4112,21 +4172,21 @@
       <c r="E40" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="83"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="83"/>
-      <c r="J40" s="84"/>
-      <c r="K40" s="85"/>
-      <c r="L40" s="83"/>
-      <c r="M40" s="84"/>
-      <c r="N40" s="85"/>
-      <c r="O40" s="83"/>
-      <c r="P40" s="84"/>
-      <c r="Q40" s="85"/>
-      <c r="R40" s="83"/>
-      <c r="S40" s="84"/>
-      <c r="T40" s="85"/>
+      <c r="F40" s="87"/>
+      <c r="G40" s="88"/>
+      <c r="H40" s="89"/>
+      <c r="I40" s="87"/>
+      <c r="J40" s="88"/>
+      <c r="K40" s="89"/>
+      <c r="L40" s="87"/>
+      <c r="M40" s="88"/>
+      <c r="N40" s="89"/>
+      <c r="O40" s="87"/>
+      <c r="P40" s="88"/>
+      <c r="Q40" s="89"/>
+      <c r="R40" s="87"/>
+      <c r="S40" s="88"/>
+      <c r="T40" s="89"/>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41" s="45">
@@ -4138,36 +4198,36 @@
       <c r="E41" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="74">
+      <c r="F41" s="95">
         <f>SUM(F36,F37,F38,-F39,-F40)</f>
         <v>0</v>
       </c>
-      <c r="G41" s="75"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="74">
+      <c r="G41" s="96"/>
+      <c r="H41" s="97"/>
+      <c r="I41" s="95">
         <f>SUM(I36,I37,I38,-I39,-I40)</f>
         <v>0</v>
       </c>
-      <c r="J41" s="75"/>
-      <c r="K41" s="76"/>
-      <c r="L41" s="74">
+      <c r="J41" s="96"/>
+      <c r="K41" s="97"/>
+      <c r="L41" s="95">
         <f>SUM(L36,L37,L38,-L39,-L40)</f>
         <v>0</v>
       </c>
-      <c r="M41" s="75"/>
-      <c r="N41" s="76"/>
-      <c r="O41" s="74">
+      <c r="M41" s="96"/>
+      <c r="N41" s="97"/>
+      <c r="O41" s="95">
         <f>SUM(O36,O37,O38,-O39,-O40)</f>
         <v>0</v>
       </c>
-      <c r="P41" s="75"/>
-      <c r="Q41" s="76"/>
-      <c r="R41" s="74">
+      <c r="P41" s="96"/>
+      <c r="Q41" s="97"/>
+      <c r="R41" s="95">
         <f>SUM(R36,R37,R38,-R39,-R40)</f>
         <v>0</v>
       </c>
-      <c r="S41" s="75"/>
-      <c r="T41" s="76"/>
+      <c r="S41" s="96"/>
+      <c r="T41" s="97"/>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42" s="28">
@@ -4179,33 +4239,33 @@
       <c r="E42" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F42" s="77"/>
-      <c r="G42" s="78"/>
-      <c r="H42" s="79"/>
-      <c r="I42" s="80">
+      <c r="F42" s="105"/>
+      <c r="G42" s="106"/>
+      <c r="H42" s="107"/>
+      <c r="I42" s="83">
         <f>I41-F41</f>
         <v>0</v>
       </c>
-      <c r="J42" s="81"/>
-      <c r="K42" s="82"/>
-      <c r="L42" s="80">
+      <c r="J42" s="84"/>
+      <c r="K42" s="85"/>
+      <c r="L42" s="83">
         <f>L41-I41</f>
         <v>0</v>
       </c>
-      <c r="M42" s="81"/>
-      <c r="N42" s="82"/>
-      <c r="O42" s="80">
+      <c r="M42" s="84"/>
+      <c r="N42" s="85"/>
+      <c r="O42" s="83">
         <f>O41-L41</f>
         <v>0</v>
       </c>
-      <c r="P42" s="81"/>
-      <c r="Q42" s="82"/>
-      <c r="R42" s="80">
+      <c r="P42" s="84"/>
+      <c r="Q42" s="85"/>
+      <c r="R42" s="83">
         <f>R41-O41</f>
         <v>0</v>
       </c>
-      <c r="S42" s="81"/>
-      <c r="T42" s="82"/>
+      <c r="S42" s="84"/>
+      <c r="T42" s="85"/>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D43" s="26"/>
@@ -4742,128 +4802,26 @@
     </row>
   </sheetData>
   <mergeCells count="157">
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="I8:Q8"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="I6:Q6"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="R30:T30"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="R31:T31"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="F34:H35"/>
-    <mergeCell ref="R32:T32"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="R33:T33"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="R35:T35"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="O42:Q42"/>
+    <mergeCell ref="R42:T42"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="R39:T39"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="R40:T40"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="O39:Q39"/>
     <mergeCell ref="F36:H36"/>
     <mergeCell ref="I36:K36"/>
     <mergeCell ref="L36:N36"/>
@@ -4879,39 +4837,159 @@
     <mergeCell ref="I37:K37"/>
     <mergeCell ref="L37:N37"/>
     <mergeCell ref="O37:Q37"/>
-    <mergeCell ref="R39:T39"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="R40:T40"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="O39:Q39"/>
-    <mergeCell ref="R41:T41"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="O42:Q42"/>
-    <mergeCell ref="R42:T42"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="F34:H35"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="R35:T35"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="I8:Q8"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="I6:Q6"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I6" r:id="rId1" xr:uid="{43F5673C-CE6B-4F98-83B5-819241318B7D}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
-  <pageSetup paperSize="9" scale="86" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="86" orientation="portrait" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="20" max="1048575" man="1"/>
   </colBreaks>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x01010030FFAE185255B943BF00A4921C9C6203" ma:contentTypeVersion="14" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="a1010c0d9688ed6954ce79fe450af9ab">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b385e7dc-4d6b-4b39-8a38-56fc2755f3d2" xmlns:ns4="91f93370-6b7a-40ed-8652-caead1fcc602" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fa2f3a98f38f2e2ec026df8210b8b497" ns3:_="" ns4:_="">
     <xsd:import namespace="b385e7dc-4d6b-4b39-8a38-56fc2755f3d2"/>
@@ -5140,22 +5218,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D61E7F-BDB6-4C70-91F3-684911ED8B84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="b385e7dc-4d6b-4b39-8a38-56fc2755f3d2"/>
+    <ds:schemaRef ds:uri="91f93370-6b7a-40ed-8652-caead1fcc602"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CECB5C3A-A3A5-4128-B13D-8B0121EC65CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F636A4D4-B8C7-4574-BDA6-A88733A15944}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5172,29 +5260,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CECB5C3A-A3A5-4128-B13D-8B0121EC65CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D61E7F-BDB6-4C70-91F3-684911ED8B84}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="b385e7dc-4d6b-4b39-8a38-56fc2755f3d2"/>
-    <ds:schemaRef ds:uri="91f93370-6b7a-40ed-8652-caead1fcc602"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>